--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Onasander\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3122C81-D102-409B-ACDE-29B88EFD6B96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F94CE7A6-79A7-4E44-9201-FCB4542DE257}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +604,7 @@
     <col min="8" max="8" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
     <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -700,6 +701,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K5" s="7"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -712,6 +714,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="K6" s="7"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -727,7 +730,7 @@
         <v>43397</v>
       </c>
       <c r="E7" s="32">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F7" s="36">
         <v>20000000</v>
@@ -742,6 +745,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K7" s="7"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
@@ -754,6 +758,7 @@
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="K8" s="7"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -769,7 +774,7 @@
         <v>43458</v>
       </c>
       <c r="E9" s="32">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F9" s="36">
         <v>20000000</v>
@@ -784,6 +789,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K9" s="7"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -796,6 +802,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="K10" s="7"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -811,7 +818,7 @@
         <v>43519</v>
       </c>
       <c r="E11" s="32">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F11" s="36">
         <v>19200000</v>
@@ -826,6 +833,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K11" s="7"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
@@ -838,9 +846,11 @@
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
       <c r="K12" s="7"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" s="7"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" s="7"/>
@@ -854,6 +864,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K19" s="7"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K22" s="7"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Onasander\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F94CE7A6-79A7-4E44-9201-FCB4542DE257}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6C1A7D2-81B5-4A60-BFBF-EAB3858C1A97}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>ICO Start</t>
   </si>
   <si>
-    <t>ICO Schedule and Pricing</t>
-  </si>
-  <si>
-    <t>PRE ICO 1</t>
-  </si>
-  <si>
     <t>PRE ICO 2</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Onasander ICO Schedule and Pricing</t>
+  </si>
+  <si>
+    <t>PRE ICO 1 *</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="6"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>1</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="33">
         <v>43303</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="33">
         <v>43365</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="33">
         <v>43426</v>
